--- a/sd-add-new-version-annuaire/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-add-new-version-annuaire/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3334" uniqueCount="548">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T08:24:05+00:00</t>
+    <t>2024-04-10T09:05:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -704,14 +704,14 @@
     <t>contracted</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-contracted}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-practitionerrole-contracted}
 </t>
   </si>
   <si>
     <t>secteurConventionnement (SituationOperationnelle) : Secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie</t>
   </si>
   <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour décrire le secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie.</t>
   </si>
   <si>
     <t>PractitionerRole.extension:contracted.id</t>
@@ -741,7 +741,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-contracted</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-practitionerrole-contracted</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -757,7 +757,7 @@
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
+    <t>Liste des conventionnements CNAM.</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
@@ -781,13 +781,16 @@
     <t>optionCAS</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-hasCAS}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-practitionerrole-hascas}
 </t>
   </si>
   <si>
     <t>optionContratAccèsAuxSoins (SituationOperationnelle) : L'Option pratique tarifaire maîtrisée (OPTAM) a remplacé le Contrat d'accès aux soins (CAS) en 2017</t>
   </si>
   <si>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour décrire le contrat d'accès aux soins (CAS), remplacée récemment par l'option pratique tarifaire maîtrisée (OPTAM).</t>
+  </si>
+  <si>
     <t>PractitionerRole.extension:optionCAS.id</t>
   </si>
   <si>
@@ -797,7 +800,7 @@
     <t>PractitionerRole.extension:optionCAS.url</t>
   </si>
   <si>
-    <t>https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-hasCAS</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-practitionerrole-hascas</t>
   </si>
   <si>
     <t>PractitionerRole.extension:optionCAS.value[x]</t>
@@ -807,6 +810,9 @@
 </t>
   </si>
   <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
     <t>optionContratAccèsAuxSoins</t>
   </si>
   <si>
@@ -816,13 +822,16 @@
     <t>vitalAccepted</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-vitaleAccepted}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-practitionerrole-vitale-accepted}
 </t>
   </si>
   <si>
     <t>carteVitaleAcceptee (SituationOperationnelle) : Précise si le professionnel, dans le cadre de cette situation opérationnelle, dispose des moyens techniques pour prendre en charge la carte vitale ou pas</t>
   </si>
   <si>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour décrire l’indicateur Carte Vitale acceptée (oui/non).</t>
+  </si>
+  <si>
     <t>PractitionerRole.extension:vitalAccepted.id</t>
   </si>
   <si>
@@ -832,7 +841,7 @@
     <t>PractitionerRole.extension:vitalAccepted.url</t>
   </si>
   <si>
-    <t>https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-vitaleAccepted</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-practitionerrole-vitale-accepted</t>
   </si>
   <si>
     <t>PractitionerRole.extension:vitalAccepted.value[x]</t>
@@ -4586,7 +4595,7 @@
         <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -5105,7 +5114,7 @@
         <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5180,7 +5189,7 @@
         <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>78</v>
@@ -5191,7 +5200,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>225</v>
@@ -5309,21 +5318,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>227</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -5338,14 +5347,12 @@
         <v>116</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5418,7 +5425,7 @@
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5429,7 +5436,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>229</v>
@@ -5472,7 +5479,7 @@
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>78</v>
@@ -5549,7 +5556,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>236</v>
@@ -5575,10 +5582,10 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>239</v>
@@ -5650,7 +5657,7 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5667,13 +5674,13 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>203</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>78</v>
@@ -5695,13 +5702,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5776,7 +5783,7 @@
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5787,7 +5794,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>225</v>
@@ -5905,21 +5912,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>227</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5934,14 +5941,12 @@
         <v>116</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -6014,7 +6019,7 @@
         <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -6025,7 +6030,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>229</v>
@@ -6068,7 +6073,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>78</v>
@@ -6145,7 +6150,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>236</v>
@@ -6171,10 +6176,10 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>239</v>
@@ -6246,7 +6251,7 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -6263,13 +6268,13 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>203</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>78</v>
@@ -6291,13 +6296,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6383,13 +6388,13 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>203</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>78</v>
@@ -6411,13 +6416,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6503,10 +6508,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6532,16 +6537,16 @@
         <v>116</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>119</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6590,7 +6595,7 @@
         <v>122</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6625,10 +6630,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6651,17 +6656,17 @@
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6710,7 +6715,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6728,27 +6733,27 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6771,70 +6776,70 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="N40" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q40" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6855,24 +6860,24 @@
         <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6895,19 +6900,19 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6956,7 +6961,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6968,7 +6973,7 @@
         <v>104</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
@@ -6977,24 +6982,24 @@
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7017,16 +7022,16 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7076,7 +7081,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7088,10 +7093,10 @@
         <v>104</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
@@ -7100,7 +7105,7 @@
         <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -7111,10 +7116,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7137,16 +7142,16 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7196,7 +7201,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7208,7 +7213,7 @@
         <v>104</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
@@ -7220,7 +7225,7 @@
         <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7231,10 +7236,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7260,16 +7265,16 @@
         <v>237</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7298,7 +7303,7 @@
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7316,7 +7321,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7331,19 +7336,19 @@
         <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>78</v>
@@ -7351,10 +7356,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7380,13 +7385,13 @@
         <v>237</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7415,10 +7420,10 @@
         <v>184</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -7434,7 +7439,7 @@
         <v>122</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7455,13 +7460,13 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>78</v>
@@ -7469,13 +7474,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>78</v>
@@ -7500,13 +7505,13 @@
         <v>237</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7536,7 +7541,7 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7554,7 +7559,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7569,19 +7574,19 @@
         <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>78</v>
@@ -7589,13 +7594,13 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>78</v>
@@ -7620,13 +7625,13 @@
         <v>237</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7656,7 +7661,7 @@
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7674,7 +7679,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7689,19 +7694,19 @@
         <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>78</v>
@@ -7709,13 +7714,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>78</v>
@@ -7740,13 +7745,13 @@
         <v>237</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7776,7 +7781,7 @@
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -7794,7 +7799,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7809,19 +7814,19 @@
         <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>78</v>
@@ -7829,13 +7834,13 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>78</v>
@@ -7860,13 +7865,13 @@
         <v>237</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7896,7 +7901,7 @@
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -7914,7 +7919,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7929,19 +7934,19 @@
         <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>78</v>
@@ -7949,13 +7954,13 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>78</v>
@@ -7980,13 +7985,13 @@
         <v>237</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8016,7 +8021,7 @@
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -8034,7 +8039,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8049,19 +8054,19 @@
         <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>78</v>
@@ -8069,13 +8074,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>78</v>
@@ -8100,13 +8105,13 @@
         <v>237</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8136,7 +8141,7 @@
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -8154,7 +8159,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8169,19 +8174,19 @@
         <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>78</v>
@@ -8189,13 +8194,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>78</v>
@@ -8220,13 +8225,13 @@
         <v>237</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8256,7 +8261,7 @@
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -8274,7 +8279,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8289,19 +8294,19 @@
         <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>78</v>
@@ -8309,13 +8314,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>78</v>
@@ -8340,13 +8345,13 @@
         <v>237</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8376,7 +8381,7 @@
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8394,7 +8399,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8409,19 +8414,19 @@
         <v>105</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>78</v>
@@ -8429,13 +8434,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>78</v>
@@ -8460,13 +8465,13 @@
         <v>237</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8496,7 +8501,7 @@
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8514,7 +8519,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8529,19 +8534,19 @@
         <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>78</v>
@@ -8549,13 +8554,13 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>78</v>
@@ -8580,13 +8585,13 @@
         <v>237</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8616,7 +8621,7 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8634,7 +8639,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8649,19 +8654,19 @@
         <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>78</v>
@@ -8669,10 +8674,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8695,16 +8700,16 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8754,7 +8759,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8766,7 +8771,7 @@
         <v>104</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -8778,21 +8783,21 @@
         <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8815,16 +8820,16 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8874,7 +8879,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8886,19 +8891,19 @@
         <v>104</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
@@ -8909,10 +8914,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8935,17 +8940,17 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8994,7 +8999,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9006,22 +9011,22 @@
         <v>104</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>78</v>
@@ -9029,10 +9034,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9147,10 +9152,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9265,13 +9270,13 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>78</v>
@@ -9293,13 +9298,13 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9385,13 +9390,13 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>78</v>
@@ -9413,13 +9418,13 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9505,13 +9510,13 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>78</v>
@@ -9533,13 +9538,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9625,10 +9630,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9654,13 +9659,13 @@
         <v>180</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9689,10 +9694,10 @@
         <v>171</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -9710,7 +9715,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9719,7 +9724,7 @@
         <v>91</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>105</v>
@@ -9731,13 +9736,13 @@
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>78</v>
@@ -9745,10 +9750,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9774,16 +9779,16 @@
         <v>109</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9832,7 +9837,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9850,16 +9855,16 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>78</v>
@@ -9867,10 +9872,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9896,16 +9901,16 @@
         <v>180</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9933,10 +9938,10 @@
         <v>171</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>78</v>
@@ -9954,7 +9959,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9975,13 +9980,13 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>78</v>
@@ -9989,10 +9994,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10015,16 +10020,16 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10074,7 +10079,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10109,10 +10114,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10135,16 +10140,16 @@
         <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10194,7 +10199,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10206,7 +10211,7 @@
         <v>104</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
@@ -10218,10 +10223,10 @@
         <v>107</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>78</v>
@@ -10229,10 +10234,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10255,16 +10260,16 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10314,7 +10319,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10332,13 +10337,13 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
@@ -10349,10 +10354,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10467,10 +10472,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10587,13 +10592,13 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>78</v>
@@ -10615,13 +10620,13 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10707,13 +10712,13 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>78</v>
@@ -10735,13 +10740,13 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10827,13 +10832,13 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>78</v>
@@ -10855,13 +10860,13 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10947,14 +10952,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10976,16 +10981,16 @@
         <v>116</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>119</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -11034,7 +11039,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -11069,10 +11074,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11098,13 +11103,13 @@
         <v>180</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11133,28 +11138,28 @@
         <v>171</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF76" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11178,7 +11183,7 @@
         <v>78</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>78</v>
@@ -11189,10 +11194,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11215,13 +11220,13 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11272,7 +11277,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11296,7 +11301,7 @@
         <v>78</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>78</v>
@@ -11307,10 +11312,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11333,16 +11338,16 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11392,7 +11397,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11410,13 +11415,13 @@
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>78</v>
@@ -11427,10 +11432,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11453,16 +11458,16 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11512,7 +11517,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11530,13 +11535,13 @@
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>78</v>
@@ -11547,10 +11552,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11573,13 +11578,13 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11630,7 +11635,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11654,7 +11659,7 @@
         <v>78</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>78</v>
@@ -11665,10 +11670,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11783,10 +11788,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11903,14 +11908,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11932,16 +11937,16 @@
         <v>116</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>119</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -11990,7 +11995,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12025,10 +12030,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12054,13 +12059,13 @@
         <v>109</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12110,7 +12115,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>91</v>
@@ -12145,10 +12150,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12171,16 +12176,16 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12230,7 +12235,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12242,7 +12247,7 @@
         <v>104</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -12251,10 +12256,10 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>78</v>
@@ -12265,10 +12270,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12294,13 +12299,13 @@
         <v>109</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12350,7 +12355,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12374,7 +12379,7 @@
         <v>78</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>78</v>
@@ -12385,10 +12390,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12411,19 +12416,19 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>78</v>
@@ -12472,7 +12477,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12484,7 +12489,7 @@
         <v>104</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -12496,7 +12501,7 @@
         <v>78</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>78</v>

--- a/sd-add-new-version-annuaire/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-add-new-version-annuaire/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T09:05:12+00:00</t>
+    <t>2024-04-12T12:13:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-version-annuaire/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-add-new-version-annuaire/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T12:13:15+00:00</t>
+    <t>2024-04-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -995,7 +995,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner)
 </t>
   </si>
   <si>
@@ -1021,7 +1021,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization)
 </t>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location)
 </t>
   </si>
   <si>
@@ -1263,7 +1263,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(HealthcareService|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice)
 </t>
   </si>
   <si>
@@ -2053,7 +2053,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="138.9140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="156.69921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
